--- a/Output/Falkson_1991 Falkson 1991 OS DTIC_IFN parameters.xlsx
+++ b/Output/Falkson_1991 Falkson 1991 OS DTIC_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.00779465950803</v>
+        <v>-3.92419203737332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.628093159789506</v>
+        <v>0.494772230509085</v>
       </c>
       <c r="D2" t="n">
         <v>215.171313271477</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375222007563247</v>
+        <v>0.360426783558681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244402793342619</v>
+        <v>0.187127507302931</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.88150849650292</v>
+        <v>2.81513530583061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.698101806909137</v>
+        <v>0.549529613637574</v>
       </c>
       <c r="D2" t="n">
         <v>217.866060096611</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.04537780645883</v>
+        <v>-1.03564365282378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221833270937624</v>
+        <v>0.177278779745409</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.79988513554914</v>
+        <v>-2.76933170304976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164643636088581</v>
+        <v>0.177956593636583</v>
       </c>
       <c r="D2" t="n">
         <v>216.013890123029</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.91886556853772</v>
+        <v>1.91020861268176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.416384465763807</v>
+        <v>0.371607190811063</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.46876419652843</v>
+        <v>-3.42672233937081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.299780689171852</v>
+        <v>0.243199656921414</v>
       </c>
       <c r="D2" t="n">
         <v>216.236146963263</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0242905260330743</v>
+        <v>0.0243636821714332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0184675218673625</v>
+        <v>0.0122956675768103</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.394501017374366</v>
+        <v>0.244799560082935</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.14457190032534</v>
+        <v>-0.0810677652745029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.14457190032534</v>
+        <v>-0.0810677652745029</v>
       </c>
       <c r="B3" t="n">
-        <v>0.059732725393675</v>
+        <v>0.0350167039894086</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.487346132809803</v>
+        <v>0.301982796264662</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.149652715148843</v>
+        <v>-0.0905067219448786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.149652715148843</v>
+        <v>-0.0905067219448786</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0492100000948854</v>
+        <v>0.0314277657480212</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0271075269044691</v>
+        <v>0.0316685492187359</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0160310530185101</v>
+        <v>-0.0048304199862856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0160310530185101</v>
+        <v>-0.0048304199862856</v>
       </c>
       <c r="B3" t="n">
-        <v>0.173376023329411</v>
+        <v>0.13809190426249</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0898684616003503</v>
+        <v>0.0591460731266934</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0041447436937204</v>
+        <v>-0.00126953734763064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0041447436937204</v>
+        <v>-0.00126953734763064</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000341049363921511</v>
+        <v>0.000151183441159423</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Falkson_1991 Falkson 1991 OS DTIC_IFN parameters.xlsx
+++ b/Output/Falkson_1991 Falkson 1991 OS DTIC_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.92419203737332</v>
+        <v>-4.00779465950803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.494772230509085</v>
+        <v>0.628093159789506</v>
       </c>
       <c r="D2" t="n">
         <v>215.171313271477</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.360426783558681</v>
+        <v>0.375222007563247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187127507302931</v>
+        <v>0.244402793342619</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.81513530583061</v>
+        <v>2.88150849650292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.549529613637574</v>
+        <v>0.698101806909137</v>
       </c>
       <c r="D2" t="n">
         <v>217.866060096611</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.03564365282378</v>
+        <v>-1.04537780645883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.177278779745409</v>
+        <v>0.221833270937624</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.76933170304976</v>
+        <v>-2.79988513554914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177956593636583</v>
+        <v>0.164643636088581</v>
       </c>
       <c r="D2" t="n">
         <v>216.013890123029</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.91020861268176</v>
+        <v>0.629808504017636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.371607190811063</v>
+        <v>0.206972626700285</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.42672233937081</v>
+        <v>-3.46876419652843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.243199656921414</v>
+        <v>0.299780689171852</v>
       </c>
       <c r="D2" t="n">
         <v>216.236146963263</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0243636821714332</v>
+        <v>0.0242905260330743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0122956675768103</v>
+        <v>0.0184675218673625</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.244799560082935</v>
+        <v>0.394501017374366</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0810677652745029</v>
+        <v>-0.14457190032534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0810677652745029</v>
+        <v>-0.14457190032534</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0350167039894086</v>
+        <v>0.059732725393675</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.301982796264662</v>
+        <v>0.487346132809803</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0905067219448786</v>
+        <v>-0.149652715148843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0905067219448786</v>
+        <v>-0.149652715148843</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0314277657480212</v>
+        <v>0.0492100000948854</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0316685492187359</v>
+        <v>0.0271075269044691</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0048304199862856</v>
+        <v>-0.00816904122751264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0048304199862856</v>
+        <v>-0.00816904122751264</v>
       </c>
       <c r="B3" t="n">
-        <v>0.13809190426249</v>
+        <v>0.0428376682032157</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0591460731266934</v>
+        <v>0.0898684616003503</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00126953734763064</v>
+        <v>-0.0041447436937204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00126953734763064</v>
+        <v>-0.0041447436937204</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000151183441159423</v>
+        <v>0.000341049363921511</v>
       </c>
     </row>
   </sheetData>
